--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_OV.xlsx
@@ -4035,7 +4035,7 @@
         <v>17783.14992215026</v>
       </c>
       <c r="E216">
-        <v>21551.15299790004</v>
+        <v>21551.15299790005</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6800,7 +6800,7 @@
         <v>12849.39875314172</v>
       </c>
       <c r="C379">
-        <v>14117.99102628508</v>
+        <v>14117.99102628509</v>
       </c>
       <c r="D379">
         <v>19715.24908909589</v>
